--- a/documents/ファイル構成一覧表-D3 (1).xlsx
+++ b/documents/ファイル構成一覧表-D3 (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E33C6AF3-528F-4E25-9E4C-12838F87B47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201089D2-EABA-4289-A928-E12764790AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="540" windowWidth="15300" windowHeight="10185" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="91">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -521,6 +521,19 @@
     <t>佐藤</t>
     <rPh sb="0" eb="2">
       <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>早く終わった人</t>
+    <rPh sb="0" eb="1">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1061,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1296,10 +1309,12 @@
       <c r="E14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
@@ -1315,10 +1330,12 @@
       <c r="E15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
@@ -1334,10 +1351,12 @@
       <c r="E16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
@@ -1353,10 +1372,12 @@
       <c r="E17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
@@ -1372,10 +1393,12 @@
       <c r="E18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
@@ -1391,10 +1414,12 @@
       <c r="E19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="20" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="6">
@@ -1413,7 +1438,9 @@
       <c r="F20" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="6"/>
+      <c r="G20" s="6" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="21" spans="2:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="5">
@@ -1934,6 +1961,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2104,22 +2146,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2136,29 +2188,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表-D3 (1).xlsx
+++ b/documents/ファイル構成一覧表-D3 (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201089D2-EABA-4289-A928-E12764790AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0175D2FA-DCDC-478C-AEAC-83B182E533E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="8895" yWindow="75" windowWidth="10065" windowHeight="10890" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="91">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1074,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1207,7 +1207,9 @@
       <c r="E8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="15" t="s">
+        <v>87</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
@@ -1224,7 +1226,9 @@
       <c r="E9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
@@ -1241,7 +1245,9 @@
       <c r="E10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
@@ -1275,7 +1281,9 @@
       <c r="E12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1961,21 +1969,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2146,32 +2139,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2188,4 +2171,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表-D3 (1).xlsx
+++ b/documents/ファイル構成一覧表-D3 (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0175D2FA-DCDC-478C-AEAC-83B182E533E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D32A014-4733-4F28-A050-369940652C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8895" yWindow="75" windowWidth="10065" windowHeight="10890" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="95">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -534,6 +534,31 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>済</t>
+    <rPh sb="0" eb="1">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岩崎</t>
+    <rPh sb="0" eb="2">
+      <t>イワサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LogoutServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -620,7 +645,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -693,6 +718,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -702,7 +742,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -751,11 +791,26 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1072,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:H45"/>
+  <dimension ref="A2:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1088,7 +1143,8 @@
     <col min="8" max="8" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="16"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1108,7 +1164,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="16"/>
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -1125,9 +1182,10 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="16"/>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B45" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B46" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1142,7 +1200,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="16"/>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1156,10 +1215,13 @@
       <c r="E5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F5" s="11"/>
+      <c r="G5" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="16"/>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1176,7 +1238,10 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1190,10 +1255,13 @@
       <c r="E7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F7" s="11"/>
+      <c r="G7" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="16"/>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1207,12 +1275,15 @@
       <c r="E8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="15"/>
+      <c r="G8" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1226,12 +1297,15 @@
       <c r="E9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1245,12 +1319,13 @@
       <c r="E10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="16"/>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1264,10 +1339,15 @@
       <c r="E11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F11" s="9"/>
+      <c r="G11" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1281,71 +1361,82 @@
       <c r="E12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="9"/>
+      <c r="G12" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="6">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="16"/>
+      <c r="B13" s="8">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="5">
-        <f t="shared" si="0"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="21">
         <v>12</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1357,16 +1448,19 @@
         <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>38</v>
+        <v>26</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1378,16 +1472,19 @@
         <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>39</v>
+        <v>28</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1399,16 +1496,19 @@
         <v>9</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>40</v>
+        <v>29</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1420,75 +1520,89 @@
         <v>9</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F20" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="6">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="6" t="s">
+    <row r="21" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="6">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E21" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F21" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G21" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="5">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="5" t="s">
+    <row r="22" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="5"/>
       <c r="G22" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1500,14 +1614,17 @@
         <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="F23" s="5"/>
       <c r="G23" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1519,14 +1636,17 @@
         <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="F24" s="5"/>
       <c r="G24" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1538,97 +1658,109 @@
         <v>10</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1" t="s">
+      <c r="F26" s="5"/>
+      <c r="G26" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B26" s="8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="8">
         <v>24</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="8" t="s">
+      <c r="C27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E27" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="6">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F27" s="6"/>
+      <c r="F27" s="5"/>
       <c r="G27" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="5">
+    <row r="28" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="5">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F29" s="14" t="s">
         <v>64</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B29" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>84</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H29" s="17"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H29" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1640,17 +1772,20 @@
         <v>13</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H30" s="17"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H30" s="19"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1662,19 +1797,23 @@
         <v>13</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H31" s="17"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H31" s="19"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="B32" s="1">
-        <v>29</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>19</v>
@@ -1683,20 +1822,22 @@
         <v>13</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>73</v>
+        <v>44</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H32" s="17"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+      <c r="H32" s="19"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="B33" s="1">
-        <f t="shared" si="0"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>19</v>
@@ -1705,17 +1846,20 @@
         <v>13</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H33" s="17"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H33" s="19"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1727,16 +1871,20 @@
         <v>13</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>67</v>
+        <v>45</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+      <c r="H34" s="19"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1747,17 +1895,20 @@
       <c r="D35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>68</v>
+      <c r="E35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1768,17 +1919,20 @@
       <c r="D36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>69</v>
+      <c r="E36" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A37" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1790,16 +1944,19 @@
         <v>13</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A38" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1811,75 +1968,85 @@
         <v>13</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="6">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A39" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="6">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F40" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G40" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="5">
+    <row r="41" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="16"/>
+      <c r="B41" s="5">
         <f>ROW()-2</f>
-        <v>38</v>
-      </c>
-      <c r="C40" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E41" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F41" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="5"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B41" s="1">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A42" s="16"/>
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1891,14 +2058,15 @@
         <v>14</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A43" s="16"/>
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1910,14 +2078,15 @@
         <v>14</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A44" s="16"/>
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1929,39 +2098,62 @@
         <v>14</v>
       </c>
       <c r="E44" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A45" s="16"/>
+      <c r="B45" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B45" s="5">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="C45" s="5" t="s">
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A46" s="16"/>
+      <c r="B46" s="5">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D46" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E46" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F46" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G45" s="5"/>
+      <c r="G46" s="5" t="s">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H28:H33"/>
+    <mergeCell ref="H29:H34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="E35" r:id="rId1" xr:uid="{5C74599C-74D6-4F55-B69D-684F0E5BCBE0}"/>
+    <hyperlink ref="E36" r:id="rId1" xr:uid="{5C74599C-74D6-4F55-B69D-684F0E5BCBE0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1969,6 +2161,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2139,22 +2346,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2171,29 +2388,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表-D3 (1).xlsx
+++ b/documents/ファイル構成一覧表-D3 (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D32A014-4733-4F28-A050-369940652C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA928927-3258-444A-80AB-673E8BD54403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -797,20 +797,20 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1130,7 +1130,7 @@
   <dimension ref="A2:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1381,7 +1381,7 @@
       <c r="E13" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="20"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="8" t="s">
         <v>89</v>
       </c>
@@ -1390,22 +1390,22 @@
       <c r="A14" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="19">
         <v>12</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="21" t="s">
+      <c r="C14" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="19" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1753,7 +1753,7 @@
       <c r="G29" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H29" s="18" t="s">
+      <c r="H29" s="21" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1780,7 +1780,7 @@
       <c r="G30" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H30" s="19"/>
+      <c r="H30" s="22"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="16" t="s">
@@ -1805,7 +1805,7 @@
       <c r="G31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H31" s="19"/>
+      <c r="H31" s="22"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="16" t="s">
@@ -1830,7 +1830,7 @@
       <c r="G32" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H32" s="19"/>
+      <c r="H32" s="22"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="16" t="s">
@@ -1854,7 +1854,7 @@
       <c r="G33" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H33" s="19"/>
+      <c r="H33" s="22"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="16" t="s">
@@ -1879,7 +1879,7 @@
       <c r="G34" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H34" s="19"/>
+      <c r="H34" s="22"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="16" t="s">
@@ -2161,21 +2161,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2346,32 +2331,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2388,4 +2363,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表-D3 (1).xlsx
+++ b/documents/ファイル構成一覧表-D3 (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA928927-3258-444A-80AB-673E8BD54403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79F9DBD-0C96-46F0-848A-F2022FDCBF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="4980" yWindow="1110" windowWidth="15300" windowHeight="10185" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="96">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -559,6 +559,13 @@
     <t>追加</t>
     <rPh sb="0" eb="2">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>濵田</t>
+    <rPh sb="0" eb="2">
+      <t>ハマダ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1129,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A2:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1179,8 +1186,10 @@
       <c r="E3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="16"/>
@@ -1197,8 +1206,10 @@
       <c r="E4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
@@ -1235,8 +1246,10 @@
       <c r="E6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="16" t="s">
@@ -2161,6 +2174,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2331,22 +2359,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2363,29 +2401,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表-D3 (1).xlsx
+++ b/documents/ファイル構成一覧表-D3 (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79F9DBD-0C96-46F0-848A-F2022FDCBF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFA3542-E60C-41B2-9378-8FE4537BDE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="1110" windowWidth="15300" windowHeight="10185" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="3675" yWindow="0" windowWidth="15300" windowHeight="10185" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="106">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -567,6 +567,48 @@
     <rPh sb="0" eb="2">
       <t>ハマダ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>memberServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FollowerServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FollowServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Leftmenu.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消すかも？</t>
+    <rPh sb="0" eb="1">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/WEB-INF/jsp</t>
+  </si>
+  <si>
+    <t>Follow.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>first.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>second.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>third.css</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -608,7 +650,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -648,6 +690,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,7 +797,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -810,14 +858,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1134,10 +1188,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="A2:H46"/>
+  <dimension ref="A2:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1194,7 +1248,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="16"/>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B46" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:G52" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1340,7 +1394,6 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="16"/>
       <c r="B11" s="1">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1350,19 +1403,16 @@
         <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="16" t="s">
         <v>91</v>
       </c>
       <c r="B12" s="1">
-        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1372,174 +1422,166 @@
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="16"/>
-      <c r="B13" s="8">
-        <f t="shared" si="0"/>
+      <c r="B13" s="1">
         <v>11</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="19" t="s">
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>89</v>
+      <c r="E14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="8">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>81</v>
+      <c r="C16" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="1">
-        <f t="shared" si="0"/>
+      <c r="B17" s="8">
         <v>15</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C17" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="1">
-        <f t="shared" si="0"/>
+      <c r="B18" s="19">
         <v>16</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>82</v>
+      <c r="C18" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="C19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>88</v>
+      <c r="E19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -1557,59 +1599,61 @@
         <v>9</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>41</v>
+        <v>26</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="E21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5" t="s">
-        <v>81</v>
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
@@ -1624,14 +1668,16 @@
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5" t="s">
-        <v>81</v>
+        <v>30</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
@@ -1646,57 +1692,61 @@
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="6">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="5">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="1">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B26" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>34</v>
+      <c r="E26" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="F26" s="5"/>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="5" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1704,69 +1754,68 @@
       <c r="A27" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="8">
-        <v>24</v>
+      <c r="B27" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>35</v>
+      <c r="E27" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F27" s="5"/>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="6">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B29" s="5">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H29" s="21" t="s">
+      <c r="H29" s="20" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1779,95 +1828,89 @@
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H30" s="22"/>
+        <v>34</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="1">
-        <f t="shared" si="0"/>
-        <v>29</v>
+      <c r="B31" s="8">
+        <v>24</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>65</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="5"/>
       <c r="G31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H31" s="22"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H31" s="21"/>
+    </row>
+    <row r="32" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>83</v>
-      </c>
+      <c r="C32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="5"/>
       <c r="G32" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H32" s="22"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H32" s="21"/>
+    </row>
+    <row r="33" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A33" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="1">
-        <v>29</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="B33" s="5">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H33" s="22"/>
+      <c r="E33" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="16" t="s">
@@ -1884,15 +1927,15 @@
         <v>13</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H34" s="22"/>
+        <v>42</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="16" t="s">
@@ -1909,13 +1952,13 @@
         <v>13</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>67</v>
+        <v>43</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
@@ -1932,14 +1975,14 @@
       <c r="D36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>68</v>
+      <c r="E36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
@@ -1947,8 +1990,7 @@
         <v>91</v>
       </c>
       <c r="B37" s="1">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>19</v>
@@ -1957,13 +1999,13 @@
         <v>13</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
@@ -1981,13 +2023,13 @@
         <v>13</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>85</v>
+        <v>45</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
@@ -2005,58 +2047,60 @@
         <v>13</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>70</v>
+        <v>46</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A40" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A41" s="16"/>
+      <c r="B41" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B40" s="6">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="5">
-        <f>ROW()-2</f>
-        <v>39</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="16"/>
@@ -2065,18 +2109,20 @@
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G42" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="16"/>
@@ -2085,80 +2131,235 @@
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G43" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="16"/>
-      <c r="B44" s="1">
-        <f t="shared" si="0"/>
+      <c r="B44" s="8">
         <v>42</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="16"/>
-      <c r="B45" s="1">
+      <c r="B45" s="6">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C45" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A46" s="16"/>
       <c r="B46" s="5">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>44</v>
       </c>
       <c r="C46" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B47" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B48" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B49" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B50" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B51" s="5">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D51" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E51" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F46" s="17" t="s">
+      <c r="F51" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G51" s="5" t="s">
         <v>92</v>
       </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B52" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B53" s="5">
+        <f t="shared" ref="B53:B54" si="1">ROW()-2</f>
+        <v>51</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B54" s="5">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G54" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2166,7 +2367,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="E36" r:id="rId1" xr:uid="{5C74599C-74D6-4F55-B69D-684F0E5BCBE0}"/>
+    <hyperlink ref="E40" r:id="rId1" xr:uid="{5C74599C-74D6-4F55-B69D-684F0E5BCBE0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -2174,21 +2375,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2359,32 +2545,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2401,4 +2577,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表-D3 (1).xlsx
+++ b/documents/ファイル構成一覧表-D3 (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFA3542-E60C-41B2-9378-8FE4537BDE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD45AAF-FDB0-48F2-B334-68D537A4A9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3675" yWindow="0" windowWidth="15300" windowHeight="10185" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -858,12 +858,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -872,6 +866,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1190,7 +1190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A2:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
@@ -1248,7 +1248,7 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="16"/>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:G52" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B52" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1405,7 +1405,7 @@
       <c r="E11" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="23"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -1424,7 +1424,7 @@
       <c r="E12" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="21" t="s">
         <v>100</v>
       </c>
       <c r="G12" s="1"/>
@@ -1443,7 +1443,7 @@
       <c r="E13" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="21" t="s">
         <v>100</v>
       </c>
       <c r="G13" s="1"/>
@@ -1553,7 +1553,7 @@
       <c r="E18" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="20" t="s">
         <v>94</v>
       </c>
       <c r="G18" s="19" t="s">
@@ -1815,7 +1815,7 @@
       <c r="G29" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H29" s="20" t="s">
+      <c r="H29" s="23" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       <c r="G30" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H30" s="21"/>
+      <c r="H30" s="24"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="16" t="s">
@@ -1862,7 +1862,7 @@
       <c r="G31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H31" s="21"/>
+      <c r="H31" s="24"/>
     </row>
     <row r="32" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="16" t="s">
@@ -1885,7 +1885,7 @@
       <c r="G32" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H32" s="21"/>
+      <c r="H32" s="24"/>
     </row>
     <row r="33" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A33" s="16" t="s">
@@ -1910,7 +1910,7 @@
       <c r="G33" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H33" s="21"/>
+      <c r="H33" s="24"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="16" t="s">
@@ -1935,7 +1935,7 @@
       <c r="G34" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H34" s="21"/>
+      <c r="H34" s="24"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="16" t="s">
@@ -2160,7 +2160,7 @@
       <c r="E44" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F44" s="24" t="s">
+      <c r="F44" s="22" t="s">
         <v>94</v>
       </c>
       <c r="G44" s="8"/>
@@ -2375,6 +2375,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2545,22 +2560,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2577,29 +2602,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>